--- a/Workday/results.xlsx
+++ b/Workday/results.xlsx
@@ -120,13 +120,13 @@
         <v>18.0</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c r="E2" t="n" s="0">
         <v>3.0</v>
       </c>
       <c r="F2" t="n" s="0">
-        <v>75.0</v>
+        <v>56.25</v>
       </c>
     </row>
     <row r="3">
@@ -140,7 +140,7 @@
         <v>13.0</v>
       </c>
       <c r="D3" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E3" t="n" s="0">
         <v>3.0</v>
@@ -160,13 +160,13 @@
         <v>15.0</v>
       </c>
       <c r="D4" t="n" s="0">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c r="E4" t="n" s="0">
         <v>2.0</v>
       </c>
       <c r="F4" t="n" s="0">
-        <v>93.75</v>
+        <v>62.5</v>
       </c>
     </row>
   </sheetData>
